--- a/data_set/analysis_files/feature_selection/all/SFM/SFM_35/feature_rank.xlsx
+++ b/data_set/analysis_files/feature_selection/all/SFM/SFM_35/feature_rank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perun\PycharmProjects\RealTime_System\data_set\analysis_files\feature_selection\all\SFM\SFM_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D84B3B7D-8F9C-49E0-86D9-A5E03A59EEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD3FA86-D142-4107-AFCD-4DEEB56D7F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_rank" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,6 +835,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1080,8 +1086,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,6 +1149,909 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>feature_rank!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>per_range_gyro_Z</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>per25_gyro_X</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min_gyro_Y</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>En_gyro_Z</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PB40-45gyro_Z</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>min_gyro_X</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PB45-50gyro_Z</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>per25_gyro_Y</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>var_gyro_Z</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PB20-25acc_Y</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>per_range_acc_xyz</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>coef_gyro_yz</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PB20-25gyro_Z</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>max_gyro_Z</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>per25_gyro_Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>feature_rank!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.2892186373751898E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0483520669569397E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5883320653165102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3363785075104901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1931479810091E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6509097023846399E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5771598792742101E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4316316188485301E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.26272344490803E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1676894287645701E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1021361731006102E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9565476672440501E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9154565273850298E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.59526209422916E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5937757676727799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8B3-4262-9F2F-89A6CCAF50A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1608388159"/>
+        <c:axId val="1608391487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1608388159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608391487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1608391487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608388159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1462086</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78271E33-6346-4D48-8463-600C20AA638F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1438,11 +2350,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1500,7 +2412,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B6" t="b">
@@ -1522,7 +2434,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B8" t="b">
@@ -1555,7 +2467,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B11" t="b">
@@ -1588,7 +2500,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B14" t="b">
@@ -1632,7 +2544,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B18" t="b">
@@ -1643,7 +2555,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B19" t="b">
@@ -3139,12 +4051,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C154">
+  <autoFilter ref="A1:C154" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C154">
       <sortCondition descending="1" ref="C1:C154"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>